--- a/40 - Wheatsstonov most/Meritve - vaja 40.xlsx
+++ b/40 - Wheatsstonov most/Meritve - vaja 40.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jure\Desktop\Fizikalni praktikum 2\Vaja 40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\40 - Wheatsstonov most\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534D19AB-4EC0-4C28-A950-5FFF7077C1AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183ACDE5-BBC5-42BB-B889-AB3ECC991A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4335" yWindow="1785" windowWidth="23400" windowHeight="12960" xr2:uid="{9A73F3ED-C9BF-4C84-B836-E99392F6829D}"/>
+    <workbookView xWindow="5080" yWindow="3693" windowWidth="15000" windowHeight="9720" xr2:uid="{9A73F3ED-C9BF-4C84-B836-E99392F6829D}"/>
   </bookViews>
   <sheets>
     <sheet name="Meritve" sheetId="1" r:id="rId1"/>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -261,9 +261,12 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -279,9 +282,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +322,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +428,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,29 +578,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDF19D5-B99D-411C-BB28-711CC8F02A8A}">
-  <dimension ref="A3:R29"/>
+  <dimension ref="A3:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.29296875" customWidth="1"/>
+    <col min="8" max="8" width="16.41015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.41015625" customWidth="1"/>
+    <col min="13" max="13" width="14.29296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.87890625" customWidth="1"/>
+    <col min="16" max="16" width="16.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -608,23 +611,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <f>0.5/2</f>
+        <v>0.25</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -644,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -655,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -694,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C11">
         <v>1</v>
       </c>
@@ -714,7 +718,7 @@
       </c>
       <c r="H11" s="10">
         <f>(G11*PI()*$D$5*$D$5)/$D$4</f>
-        <v>4.0192261884894324E-2</v>
+        <v>1.0048065471223581E-2</v>
       </c>
       <c r="I11" s="10"/>
       <c r="K11">
@@ -736,10 +740,10 @@
       </c>
       <c r="P11" s="10">
         <f>(O11*$D$5*$D$5*PI())/$D$4</f>
-        <v>3.6651914291880923E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.1629785729702307E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C12">
         <v>2</v>
       </c>
@@ -750,16 +754,16 @@
         <v>42.1</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F15" si="0">$D$4-E12</f>
+        <f>$D$4-E12</f>
         <v>57.9</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" ref="G12:G15" si="1">D12*(($D$4-E12)/E12)</f>
+        <f>D12*(($D$4-E12)/E12)</f>
         <v>5.5011876484560567</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" ref="H12:H16" si="2">(G12*PI()*$D$5*$D$5)/$D$4</f>
-        <v>4.3206226756021142E-2</v>
+        <f t="shared" ref="H12:H17" si="0">(G12*PI()*$D$5*$D$5)/$D$4</f>
+        <v>1.0801556689005285E-2</v>
       </c>
       <c r="I12" s="10"/>
       <c r="K12">
@@ -772,19 +776,19 @@
         <v>56.3</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N15" si="3">$D$4-M12</f>
+        <f t="shared" ref="N12:N15" si="1">$D$4-M12</f>
         <v>43.7</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" ref="O12:O15" si="4">L12*(M12/($D$4-M12))</f>
+        <f t="shared" ref="O12:O15" si="2">L12*(M12/($D$4-M12))</f>
         <v>5.1533180778032035</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P16" si="5">(O12*$D$5*$D$5*PI())/$D$4</f>
-        <v>4.0474065537095046E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P12:P16" si="3">(O12*$D$5*$D$5*PI())/$D$4</f>
+        <v>1.0118516384273761E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C13">
         <v>3</v>
       </c>
@@ -795,16 +799,16 @@
         <v>51.7</v>
       </c>
       <c r="F13">
+        <f t="shared" ref="F12:F15" si="4">$D$4-E13</f>
+        <v>48.3</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G12:G15" si="5">D13*(($D$4-E13)/E13)</f>
+        <v>5.6054158607350093</v>
+      </c>
+      <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>48.3</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6054158607350093</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" si="2"/>
-        <v>4.4024833221002029E-2</v>
+        <v>1.1006208305250507E-2</v>
       </c>
       <c r="I13" s="10"/>
       <c r="K13">
@@ -817,19 +821,19 @@
         <v>47.1</v>
       </c>
       <c r="N13">
+        <f t="shared" si="1"/>
+        <v>52.9</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="2"/>
+        <v>5.3421550094517958</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="3"/>
-        <v>52.9</v>
-      </c>
-      <c r="O13" s="6">
-        <f t="shared" si="4"/>
-        <v>5.3421550094517958</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="5"/>
-        <v>4.1957187330079186E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0489296832519797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C14">
         <v>4</v>
       </c>
@@ -840,16 +844,16 @@
         <v>58.6</v>
       </c>
       <c r="F14">
+        <f t="shared" si="4"/>
+        <v>41.4</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6518771331058018</v>
+      </c>
+      <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>41.4</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6518771331058018</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" si="2"/>
-        <v>4.4389739200893313E-2</v>
+        <v>1.1097434800223328E-2</v>
       </c>
       <c r="I14" s="10"/>
       <c r="K14">
@@ -862,19 +866,19 @@
         <v>40.4</v>
       </c>
       <c r="N14">
+        <f t="shared" si="1"/>
+        <v>59.6</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="2"/>
+        <v>5.422818791946308</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="3"/>
-        <v>59.6</v>
-      </c>
-      <c r="O14" s="6">
-        <f t="shared" si="4"/>
-        <v>5.422818791946308</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="5"/>
-        <v>4.2590719196317996E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0647679799079499E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="C15" s="3">
         <v>5</v>
       </c>
@@ -885,16 +889,16 @@
         <v>63.6</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36.4</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.7232704402515724</v>
       </c>
       <c r="H15" s="11">
-        <f t="shared" si="2"/>
-        <v>4.4950460924004905E-2</v>
+        <f>(G15*PI()*$D$5*$D$5)/$D$4</f>
+        <v>1.1237615231001226E-2</v>
       </c>
       <c r="I15" s="22"/>
       <c r="K15" s="3">
@@ -907,19 +911,19 @@
         <v>35.700000000000003</v>
       </c>
       <c r="N15" s="3">
+        <f t="shared" si="1"/>
+        <v>64.3</v>
+      </c>
+      <c r="O15" s="14">
+        <f t="shared" si="2"/>
+        <v>5.5520995334370147</v>
+      </c>
+      <c r="P15" s="11">
         <f t="shared" si="3"/>
-        <v>64.3</v>
-      </c>
-      <c r="O15" s="14">
-        <f t="shared" si="4"/>
-        <v>5.5520995334370147</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" si="5"/>
-        <v>4.360608776561261E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1.0901521941403152E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="F16" s="9" t="s">
         <v>16</v>
       </c>
@@ -928,8 +932,8 @@
         <v>5.5198377609936742</v>
       </c>
       <c r="H16" s="21">
-        <f t="shared" si="2"/>
-        <v>4.3352704397363141E-2</v>
+        <f>(G16*PI()*$D$5*$D$5)/$D$4</f>
+        <v>1.0838176099340785E-2</v>
       </c>
       <c r="I16" t="s">
         <v>20</v>
@@ -942,14 +946,14 @@
         <v>5.2274116158609978</v>
       </c>
       <c r="P16" s="21">
-        <f t="shared" si="5"/>
-        <v>4.1055994824197153E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.0263998706049288E-2</v>
       </c>
       <c r="Q16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:17" x14ac:dyDescent="0.5">
       <c r="F17" s="9"/>
       <c r="G17" s="15"/>
       <c r="H17" s="22"/>
@@ -958,22 +962,43 @@
       <c r="O17" s="15"/>
       <c r="P17" s="22"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F18" s="9"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="22"/>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="F18" s="24">
+        <f>AVERAGE(G16,O16)</f>
+        <v>5.373624688427336</v>
+      </c>
+      <c r="G18" s="15">
+        <f>H18*F18</f>
+        <v>0.10393858198118637</v>
+      </c>
+      <c r="H18" s="22">
+        <f>0.5/E13*2</f>
+        <v>1.9342359767891681E-2</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="N18" s="9"/>
       <c r="O18" s="15"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="3:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="1">
         <v>4800</v>
       </c>
+      <c r="F19" s="10">
+        <f>AVERAGE(H16,P16)</f>
+        <v>1.0551087402695038E-2</v>
+      </c>
+      <c r="G19">
+        <f>H19*F19</f>
+        <v>2.3248514964270997E-3</v>
+      </c>
+      <c r="H19">
+        <f>H18+0.1/100+0.5/2.5</f>
+        <v>0.22034235976789168</v>
+      </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
@@ -981,7 +1006,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C20" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" ht="16.350000000000001" x14ac:dyDescent="0.65">
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -1028,7 +1053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C22">
         <v>1</v>
       </c>
@@ -1048,7 +1073,7 @@
       </c>
       <c r="H22" s="5">
         <f>(G22*$D$5*$D$5*PI())/$D$4</f>
-        <v>38.271291948370511</v>
+        <v>9.5678229870926277</v>
       </c>
       <c r="I22" s="5"/>
       <c r="K22">
@@ -1070,10 +1095,10 @@
       </c>
       <c r="P22" s="4">
         <f>(O22*$D$5*$D$5*PI())/$D$4</f>
-        <v>37.539369843742442</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+        <v>9.3848424609356105</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C23">
         <v>2</v>
       </c>
@@ -1093,7 +1118,7 @@
       </c>
       <c r="H23" s="5">
         <f t="shared" ref="H23:H29" si="8">(G23*$D$5*$D$5*PI())/$D$4</f>
-        <v>37.797286613502195</v>
+        <v>9.4493216533755486</v>
       </c>
       <c r="I23" s="5"/>
       <c r="K23">
@@ -1115,10 +1140,10 @@
       </c>
       <c r="P23" s="4">
         <f t="shared" ref="P23:P29" si="11">(O23*$D$5*$D$5*PI())/$D$4</f>
-        <v>37.479363134147661</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+        <v>9.3698407835369153</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C24">
         <v>3</v>
       </c>
@@ -1138,7 +1163,7 @@
       </c>
       <c r="H24" s="5">
         <f t="shared" si="8"/>
-        <v>37.327895205673023</v>
+        <v>9.3319738014182558</v>
       </c>
       <c r="I24" s="5"/>
       <c r="K24">
@@ -1160,10 +1185,10 @@
       </c>
       <c r="P24" s="4">
         <f t="shared" si="11"/>
-        <v>37.028357856036557</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+        <v>9.2570894640091392</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C25">
         <v>4</v>
       </c>
@@ -1183,7 +1208,7 @@
       </c>
       <c r="H25" s="5">
         <f t="shared" si="8"/>
-        <v>37.881188431055705</v>
+        <v>9.4702971077639262</v>
       </c>
       <c r="I25" s="5"/>
       <c r="K25">
@@ -1205,10 +1230,10 @@
       </c>
       <c r="P25" s="4">
         <f t="shared" si="11"/>
-        <v>36.249146002959151</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+        <v>9.0622865007397877</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C26">
         <v>5</v>
       </c>
@@ -1228,7 +1253,7 @@
       </c>
       <c r="H26" s="5">
         <f t="shared" si="8"/>
-        <v>37.784019752634002</v>
+        <v>9.4460049381585005</v>
       </c>
       <c r="I26" s="5"/>
       <c r="K26">
@@ -1250,10 +1275,10 @@
       </c>
       <c r="P26" s="4">
         <f t="shared" si="11"/>
-        <v>37.937283127284687</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+        <v>9.4843207818211717</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C27">
         <v>6</v>
       </c>
@@ -1268,12 +1293,12 @@
         <v>40.5</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="7"/>
+        <f>D27*(($D$4-E27)/E27)</f>
         <v>4764.7058823529414</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" si="8"/>
-        <v>37.421912491290186</v>
+        <v>9.3554781228225465</v>
       </c>
       <c r="I27" s="5"/>
       <c r="K27">
@@ -1295,10 +1320,10 @@
       </c>
       <c r="P27" s="4">
         <f t="shared" si="11"/>
-        <v>35.297779527402561</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+        <v>8.8244448818506402</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.5">
       <c r="C28" s="3">
         <v>7</v>
       </c>
@@ -1318,7 +1343,7 @@
       </c>
       <c r="H28" s="13">
         <f t="shared" si="8"/>
-        <v>37.699111843077517</v>
+        <v>9.4247779607693793</v>
       </c>
       <c r="I28" s="23"/>
       <c r="K28" s="3">
@@ -1340,10 +1365,10 @@
       </c>
       <c r="P28" s="12">
         <f t="shared" si="11"/>
-        <v>35.650675253902982</v>
-      </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+        <v>8.9126688134757455</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.5">
       <c r="F29" s="9" t="s">
         <v>16</v>
       </c>
@@ -1352,8 +1377,8 @@
         <v>4805.2552668283506</v>
       </c>
       <c r="H29" s="19">
-        <f t="shared" si="8"/>
-        <v>37.740386612229017</v>
+        <f>(G29*$D$5*$D$5*PI())/$D$4</f>
+        <v>9.4350966530572542</v>
       </c>
       <c r="I29" t="s">
         <v>20</v>
@@ -1367,10 +1392,20 @@
       </c>
       <c r="P29" s="17">
         <f t="shared" si="11"/>
-        <v>36.740282106496579</v>
+        <v>9.1850705266241448</v>
       </c>
       <c r="Q29" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.5">
+      <c r="F31" s="7">
+        <f>AVERAGE(G29,O29)</f>
+        <v>4741.5866365500333</v>
+      </c>
+      <c r="G31" s="7">
+        <f>G29-F31</f>
+        <v>63.668630278317323</v>
       </c>
     </row>
   </sheetData>
